--- a/team_specific_matrix/Wofford_A.xlsx
+++ b/team_specific_matrix/Wofford_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.25</v>
+        <v>0.2517482517482518</v>
       </c>
       <c r="C2">
-        <v>0.425</v>
+        <v>0.4265734265734266</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02916666666666667</v>
+        <v>0.02797202797202797</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1583333333333333</v>
+        <v>0.1573426573426573</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1375</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0196078431372549</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02941176470588235</v>
+        <v>0.03252032520325204</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7450980392156863</v>
+        <v>0.7479674796747967</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2058823529411765</v>
+        <v>0.1951219512195122</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09090909090909091</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5909090909090909</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3181818181818182</v>
+        <v>0.3207547169811321</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03465346534653466</v>
+        <v>0.04132231404958678</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0198019801980198</v>
+        <v>0.02066115702479339</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09405940594059406</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2722772277227723</v>
+        <v>0.268595041322314</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004950495049504951</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1683168316831683</v>
+        <v>0.1611570247933884</v>
       </c>
       <c r="R6">
-        <v>0.08415841584158416</v>
+        <v>0.08677685950413223</v>
       </c>
       <c r="S6">
-        <v>0.3217821782178218</v>
+        <v>0.3223140495867768</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1304347826086956</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0124223602484472</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="E7">
-        <v>0.0124223602484472</v>
+        <v>0.009950248756218905</v>
       </c>
       <c r="F7">
-        <v>0.03726708074534162</v>
+        <v>0.05472636815920398</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1366459627329193</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02484472049689441</v>
+        <v>0.01990049751243781</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1925465838509317</v>
+        <v>0.1840796019900497</v>
       </c>
       <c r="R7">
-        <v>0.09316770186335403</v>
+        <v>0.1144278606965174</v>
       </c>
       <c r="S7">
-        <v>0.360248447204969</v>
+        <v>0.3482587064676617</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09615384615384616</v>
+        <v>0.09601873536299765</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01923076923076923</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0576923076923077</v>
+        <v>0.06088992974238876</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1043956043956044</v>
+        <v>0.1053864168618267</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.008241758241758242</v>
+        <v>0.00936768149882904</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1648351648351648</v>
+        <v>0.1733021077283372</v>
       </c>
       <c r="R8">
-        <v>0.1373626373626374</v>
+        <v>0.1334894613583138</v>
       </c>
       <c r="S8">
-        <v>0.4120879120879121</v>
+        <v>0.405152224824356</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08673469387755102</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02040816326530612</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="E9">
-        <v>0.00510204081632653</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="F9">
-        <v>0.08163265306122448</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07653061224489796</v>
+        <v>0.0782608695652174</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03571428571428571</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1938775510204082</v>
+        <v>0.1869565217391304</v>
       </c>
       <c r="R9">
-        <v>0.1122448979591837</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="S9">
-        <v>0.3877551020408163</v>
+        <v>0.391304347826087</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08923643054277829</v>
+        <v>0.09177972865123703</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02483900643974241</v>
+        <v>0.02394253790901836</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06991720331186753</v>
+        <v>0.07023144453312051</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1149954001839926</v>
+        <v>0.1189146049481245</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01011959521619135</v>
+        <v>0.01037509976057462</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2051517939282429</v>
+        <v>0.1987230646448523</v>
       </c>
       <c r="R10">
-        <v>0.1002759889604416</v>
+        <v>0.1037509976057462</v>
       </c>
       <c r="S10">
-        <v>0.3854645814167433</v>
+        <v>0.3822825219473264</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1265822784810127</v>
+        <v>0.1275862068965517</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06751054852320675</v>
+        <v>0.05862068965517241</v>
       </c>
       <c r="K11">
-        <v>0.1814345991561181</v>
+        <v>0.1793103448275862</v>
       </c>
       <c r="L11">
-        <v>0.6075949367088608</v>
+        <v>0.6137931034482759</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01687763713080169</v>
+        <v>0.02068965517241379</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7266666666666667</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2133333333333333</v>
+        <v>0.1989247311827957</v>
       </c>
       <c r="K12">
-        <v>0.01333333333333333</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="L12">
-        <v>0.04</v>
+        <v>0.03763440860215054</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.006666666666666667</v>
+        <v>0.01075268817204301</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6756756756756757</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3243243243243243</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.02222222222222222</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01092896174863388</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2021857923497268</v>
+        <v>0.1924882629107981</v>
       </c>
       <c r="I15">
-        <v>0.09836065573770492</v>
+        <v>0.09389671361502347</v>
       </c>
       <c r="J15">
-        <v>0.3387978142076503</v>
+        <v>0.3427230046948357</v>
       </c>
       <c r="K15">
-        <v>0.04918032786885246</v>
+        <v>0.06103286384976526</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01092896174863388</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08196721311475409</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2076502732240437</v>
+        <v>0.2018779342723005</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1985294117647059</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="I16">
-        <v>0.1397058823529412</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="J16">
-        <v>0.3970588235294117</v>
+        <v>0.382716049382716</v>
       </c>
       <c r="K16">
-        <v>0.1102941176470588</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01470588235294118</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="N16">
-        <v>0.007352941176470588</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="O16">
-        <v>0.05147058823529412</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.08088235294117647</v>
+        <v>0.09259259259259259</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02597402597402598</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1428571428571428</v>
+        <v>0.1545454545454545</v>
       </c>
       <c r="I17">
-        <v>0.1142857142857143</v>
+        <v>0.1204545454545455</v>
       </c>
       <c r="J17">
-        <v>0.4623376623376623</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="K17">
-        <v>0.08311688311688312</v>
+        <v>0.08863636363636364</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02337662337662338</v>
+        <v>0.025</v>
       </c>
       <c r="N17">
-        <v>0.002597402597402597</v>
+        <v>0.002272727272727273</v>
       </c>
       <c r="O17">
-        <v>0.05974025974025974</v>
+        <v>0.06363636363636363</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08571428571428572</v>
+        <v>0.08636363636363636</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02816901408450704</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1830985915492958</v>
+        <v>0.1725490196078431</v>
       </c>
       <c r="I18">
-        <v>0.1126760563380282</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="J18">
-        <v>0.460093896713615</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="K18">
-        <v>0.07981220657276995</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009389671361502348</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="N18">
-        <v>0.004694835680751174</v>
+        <v>0.00392156862745098</v>
       </c>
       <c r="O18">
-        <v>0.04694835680751173</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07511737089201878</v>
+        <v>0.08235294117647059</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02424830261881668</v>
+        <v>0.02236951118475559</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1968962172647915</v>
+        <v>0.1971830985915493</v>
       </c>
       <c r="I19">
-        <v>0.08826382153249272</v>
+        <v>0.09113504556752279</v>
       </c>
       <c r="J19">
-        <v>0.3714839961202716</v>
+        <v>0.3661971830985916</v>
       </c>
       <c r="K19">
-        <v>0.1125121241513094</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02133850630455868</v>
+        <v>0.01988400994200497</v>
       </c>
       <c r="N19">
-        <v>0.0009699321047526673</v>
+        <v>0.0008285004142502071</v>
       </c>
       <c r="O19">
-        <v>0.07565470417070805</v>
+        <v>0.07456503728251865</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1086323957322987</v>
+        <v>0.1101905550952775</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Wofford_A.xlsx
+++ b/team_specific_matrix/Wofford_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2517482517482518</v>
+        <v>0.2539184952978056</v>
       </c>
       <c r="C2">
-        <v>0.4265734265734266</v>
+        <v>0.4263322884012539</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02797202797202797</v>
+        <v>0.02821316614420063</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1573426573426573</v>
+        <v>0.1567398119122257</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1363636363636364</v>
+        <v>0.1347962382445141</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02439024390243903</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03252032520325204</v>
+        <v>0.03623188405797102</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7479674796747967</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1951219512195122</v>
+        <v>0.2101449275362319</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09433962264150944</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5849056603773585</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3207547169811321</v>
+        <v>0.3214285714285715</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04132231404958678</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02066115702479339</v>
+        <v>0.01893939393939394</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.268595041322314</v>
+        <v>0.2765151515151515</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.008264462809917356</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1611570247933884</v>
+        <v>0.1553030303030303</v>
       </c>
       <c r="R6">
-        <v>0.08677685950413223</v>
+        <v>0.07954545454545454</v>
       </c>
       <c r="S6">
-        <v>0.3223140495867768</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1194029850746269</v>
+        <v>0.1210762331838565</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02985074626865672</v>
+        <v>0.02690582959641256</v>
       </c>
       <c r="E7">
-        <v>0.009950248756218905</v>
+        <v>0.008968609865470852</v>
       </c>
       <c r="F7">
-        <v>0.05472636815920398</v>
+        <v>0.05829596412556054</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1194029850746269</v>
+        <v>0.1255605381165919</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01990049751243781</v>
+        <v>0.02242152466367713</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1840796019900497</v>
+        <v>0.1838565022421525</v>
       </c>
       <c r="R7">
-        <v>0.1144278606965174</v>
+        <v>0.1165919282511211</v>
       </c>
       <c r="S7">
-        <v>0.3482587064676617</v>
+        <v>0.336322869955157</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09601873536299765</v>
+        <v>0.09482758620689655</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01639344262295082</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06088992974238876</v>
+        <v>0.06465517241379311</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1053864168618267</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.00936768149882904</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1733021077283372</v>
+        <v>0.1745689655172414</v>
       </c>
       <c r="R8">
-        <v>0.1334894613583138</v>
+        <v>0.1336206896551724</v>
       </c>
       <c r="S8">
-        <v>0.405152224824356</v>
+        <v>0.4030172413793103</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08695652173913043</v>
+        <v>0.08267716535433071</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02173913043478261</v>
+        <v>0.01968503937007874</v>
       </c>
       <c r="E9">
-        <v>0.008695652173913044</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="F9">
-        <v>0.08695652173913043</v>
+        <v>0.07874015748031496</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0782608695652174</v>
+        <v>0.08661417322834646</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03478260869565217</v>
+        <v>0.03149606299212598</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1869565217391304</v>
+        <v>0.1889763779527559</v>
       </c>
       <c r="R9">
-        <v>0.1043478260869565</v>
+        <v>0.1102362204724409</v>
       </c>
       <c r="S9">
-        <v>0.391304347826087</v>
+        <v>0.3937007874015748</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09177972865123703</v>
+        <v>0.09337134711332858</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02394253790901836</v>
+        <v>0.02280826799714897</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07023144453312051</v>
+        <v>0.0691375623663578</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1189146049481245</v>
+        <v>0.1233071988595866</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01037509976057462</v>
+        <v>0.01069137562366358</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1987230646448523</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="R10">
-        <v>0.1037509976057462</v>
+        <v>0.1083392729864576</v>
       </c>
       <c r="S10">
-        <v>0.3822825219473264</v>
+        <v>0.3756236635780471</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1275862068965517</v>
+        <v>0.1257668711656442</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05862068965517241</v>
+        <v>0.06134969325153374</v>
       </c>
       <c r="K11">
-        <v>0.1793103448275862</v>
+        <v>0.1748466257668712</v>
       </c>
       <c r="L11">
-        <v>0.6137931034482759</v>
+        <v>0.6165644171779141</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02068965517241379</v>
+        <v>0.02147239263803681</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7419354838709677</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1989247311827957</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
-        <v>0.01075268817204301</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="L12">
-        <v>0.03763440860215054</v>
+        <v>0.0380952380952381</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01075268817204301</v>
+        <v>0.009523809523809525</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6888888888888889</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2888888888888889</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02222222222222222</v>
+        <v>0.02040816326530612</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.75</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01408450704225352</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1924882629107981</v>
+        <v>0.1810344827586207</v>
       </c>
       <c r="I15">
-        <v>0.09389671361502347</v>
+        <v>0.09482758620689655</v>
       </c>
       <c r="J15">
-        <v>0.3427230046948357</v>
+        <v>0.3405172413793103</v>
       </c>
       <c r="K15">
-        <v>0.06103286384976526</v>
+        <v>0.0603448275862069</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009389671361502348</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08450704225352113</v>
+        <v>0.08189655172413793</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2018779342723005</v>
+        <v>0.2155172413793103</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1975308641975309</v>
+        <v>0.1942857142857143</v>
       </c>
       <c r="I16">
-        <v>0.1296296296296296</v>
+        <v>0.1485714285714286</v>
       </c>
       <c r="J16">
-        <v>0.382716049382716</v>
+        <v>0.3657142857142857</v>
       </c>
       <c r="K16">
-        <v>0.1111111111111111</v>
+        <v>0.1028571428571429</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0308641975308642</v>
+        <v>0.03428571428571429</v>
       </c>
       <c r="N16">
-        <v>0.006172839506172839</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="O16">
-        <v>0.04938271604938271</v>
+        <v>0.04571428571428571</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09259259259259259</v>
+        <v>0.1028571428571429</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02272727272727273</v>
+        <v>0.02268041237113402</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1545454545454545</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="I17">
-        <v>0.1204545454545455</v>
+        <v>0.1195876288659794</v>
       </c>
       <c r="J17">
-        <v>0.4363636363636363</v>
+        <v>0.4391752577319588</v>
       </c>
       <c r="K17">
-        <v>0.08863636363636364</v>
+        <v>0.08453608247422681</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.025</v>
+        <v>0.02268041237113402</v>
       </c>
       <c r="N17">
-        <v>0.002272727272727273</v>
+        <v>0.002061855670103093</v>
       </c>
       <c r="O17">
-        <v>0.06363636363636363</v>
+        <v>0.06597938144329897</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08636363636363636</v>
+        <v>0.08865979381443299</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0392156862745098</v>
+        <v>0.03460207612456748</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1725490196078431</v>
+        <v>0.1730103806228374</v>
       </c>
       <c r="I18">
-        <v>0.1058823529411765</v>
+        <v>0.09688581314878893</v>
       </c>
       <c r="J18">
-        <v>0.4666666666666667</v>
+        <v>0.4740484429065744</v>
       </c>
       <c r="K18">
-        <v>0.07843137254901961</v>
+        <v>0.07612456747404844</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01176470588235294</v>
+        <v>0.01384083044982699</v>
       </c>
       <c r="N18">
-        <v>0.00392156862745098</v>
+        <v>0.006920415224913495</v>
       </c>
       <c r="O18">
-        <v>0.0392156862745098</v>
+        <v>0.03806228373702422</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08235294117647059</v>
+        <v>0.08650519031141868</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02236951118475559</v>
+        <v>0.02160953800298063</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1971830985915493</v>
+        <v>0.1929955290611028</v>
       </c>
       <c r="I19">
-        <v>0.09113504556752279</v>
+        <v>0.09016393442622951</v>
       </c>
       <c r="J19">
-        <v>0.3661971830985916</v>
+        <v>0.3651266766020864</v>
       </c>
       <c r="K19">
-        <v>0.1176470588235294</v>
+        <v>0.1244411326378539</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01988400994200497</v>
+        <v>0.01937406855439642</v>
       </c>
       <c r="N19">
-        <v>0.0008285004142502071</v>
+        <v>0.002235469448584203</v>
       </c>
       <c r="O19">
-        <v>0.07456503728251865</v>
+        <v>0.07153502235469449</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1101905550952775</v>
+        <v>0.1125186289120715</v>
       </c>
     </row>
   </sheetData>
